--- a/examples/OregonNd/model_config.OregonNd.xlsx
+++ b/examples/OregonNd/model_config.OregonNd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-94" yWindow="-94" windowWidth="23134" windowHeight="9386" tabRatio="682" activeTab="2"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23136" windowHeight="9384" tabRatio="682" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="substances" sheetId="1" r:id="rId1"/>
@@ -2753,12 +2753,6 @@
     <t>kBSi_dis*BSi*(1-Omega_RBSi_dis)</t>
   </si>
   <si>
-    <t>kNdPO4_pre*NdnrPO4/(NdnrPO4+NdrPO4)*(Ndnr_free*PO4/KspNdPO4/(NdnrPO4/(NdnrPO4+NdrPO4))-1)</t>
-  </si>
-  <si>
-    <t>kNdPO4_pre*NdrPO4/(NdnrPO4+NdrPO4)*(Ndr_free*PO4/KspNdPO4/(NdrPO4/(NdnrPO4+NdrPO4))-1)</t>
-  </si>
-  <si>
     <t>Ndnr_free*PO4/KspNdPO4/(NdnrPO4/(NdnrPO4+NdrPO4))</t>
   </si>
   <si>
@@ -3093,6 +3087,12 @@
   </si>
   <si>
     <t>H{+},OH{-}</t>
+  </si>
+  <si>
+    <t>kNdPO4_pre*(Ndnr_free*PO4/KspNdPO4-NdnrPO4/(NdnrPO4+NdrPO4+1e-15))</t>
+  </si>
+  <si>
+    <t>kNdPO4_pre*(Ndr_free*PO4/KspNdPO4-NdrPO4/(NdnrPO4+NdrPO4+1e-15))</t>
   </si>
 </sst>
 </file>
@@ -3701,22 +3701,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:C37"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.23046875" style="1"/>
-    <col min="2" max="2" width="12.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.07421875" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.23046875" style="1"/>
+    <col min="1" max="1" width="9.20703125" style="1"/>
+    <col min="2" max="2" width="12.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.05078125" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.15">
+    <row r="1" spans="1:7" ht="13.8">
       <c r="A1" s="13" t="s">
         <v>105</v>
       </c>
@@ -4237,13 +4237,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>475</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>220</v>
@@ -4325,7 +4325,7 @@
         <v>457</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>221</v>
@@ -4346,7 +4346,7 @@
         <v>456</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>221</v>
@@ -4367,7 +4367,7 @@
         <v>456</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>221</v>
@@ -4388,7 +4388,7 @@
         <v>456</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>221</v>
@@ -4409,7 +4409,7 @@
         <v>456</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>221</v>
@@ -4430,7 +4430,7 @@
         <v>456</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>221</v>
@@ -4451,21 +4451,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E201" sqref="E201"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.84375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83984375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.07421875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.15234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.05078125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.15625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.69140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.23046875" style="4"/>
+    <col min="8" max="8" width="255.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.20703125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5665,10 +5665,10 @@
         <v>195</v>
       </c>
       <c r="D47" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F47"/>
       <c r="H47"/>
@@ -5991,7 +5991,7 @@
         <v>125</v>
       </c>
       <c r="E60" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F60" t="s">
         <v>295</v>
@@ -7077,7 +7077,7 @@
         <v>447</v>
       </c>
       <c r="E102" s="8">
-        <v>1.0000000000000001E-15</v>
+        <v>1E-14</v>
       </c>
       <c r="F102" t="s">
         <v>242</v>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="E103" s="8">
         <f>E102*(E101/10000+1)*0.512638</f>
-        <v>5.1251496688000011E-16</v>
+        <v>5.1251496687999999E-15</v>
       </c>
       <c r="F103" t="s">
         <v>242</v>
@@ -8863,18 +8863,18 @@
   </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:A39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.84375" customWidth="1"/>
-    <col min="3" max="3" width="18.07421875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="105.61328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="124.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="99.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83984375" customWidth="1"/>
+    <col min="3" max="3" width="18.05078125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="105.62890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="124.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="99.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -8882,7 +8882,7 @@
         <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C1" t="s">
         <v>49</v>
@@ -9342,13 +9342,13 @@
         <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E27" t="s">
         <v>889</v>
       </c>
       <c r="F27" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -9498,7 +9498,7 @@
         <v>349</v>
       </c>
       <c r="E36" t="s">
-        <v>890</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -9512,7 +9512,7 @@
         <v>351</v>
       </c>
       <c r="E37" t="s">
-        <v>891</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -9532,7 +9532,7 @@
         <v>454</v>
       </c>
       <c r="F38" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -9552,35 +9552,35 @@
         <v>455</v>
       </c>
       <c r="F39" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="C40" t="s">
+        <v>982</v>
+      </c>
+      <c r="D40" t="s">
         <v>984</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>986</v>
       </c>
-      <c r="E40" t="s">
-        <v>988</v>
-      </c>
       <c r="F40" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="C41" t="s">
+        <v>983</v>
+      </c>
+      <c r="D41" t="s">
         <v>985</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>987</v>
       </c>
-      <c r="E41" t="s">
-        <v>989</v>
-      </c>
       <c r="F41" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -9704,19 +9704,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.05078125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.15625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="79.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="79.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9753,7 +9753,7 @@
         <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -9767,7 +9767,7 @@
         <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D3" t="s">
         <v>402</v>
@@ -9779,7 +9779,7 @@
         <v>407</v>
       </c>
       <c r="G3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -9790,7 +9790,7 @@
         <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D4" t="s">
         <v>403</v>
@@ -9802,7 +9802,7 @@
         <v>407</v>
       </c>
       <c r="G4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9813,7 +9813,7 @@
         <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D5" t="s">
         <v>101</v>
@@ -9825,7 +9825,7 @@
         <v>407</v>
       </c>
       <c r="G5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -9848,7 +9848,7 @@
         <v>407</v>
       </c>
       <c r="G6" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -9859,7 +9859,7 @@
         <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D7" t="s">
         <v>106</v>
@@ -9871,7 +9871,7 @@
         <v>407</v>
       </c>
       <c r="G7" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -9879,7 +9879,7 @@
         <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D8" t="s">
         <v>103</v>
@@ -9891,7 +9891,7 @@
         <v>407</v>
       </c>
       <c r="G8" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -9902,7 +9902,7 @@
         <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D9" t="s">
         <v>100</v>
@@ -9914,7 +9914,7 @@
         <v>407</v>
       </c>
       <c r="G9" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -9925,7 +9925,7 @@
         <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D10" t="s">
         <v>99</v>
@@ -9937,7 +9937,7 @@
         <v>407</v>
       </c>
       <c r="G10" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -9961,7 +9961,7 @@
         <v>418</v>
       </c>
       <c r="G11" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -9975,7 +9975,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -9989,7 +9989,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>648</v>
@@ -10002,7 +10002,7 @@
         <v>652</v>
       </c>
       <c r="G13" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H13" s="16"/>
     </row>
@@ -10014,7 +10014,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>649</v>
@@ -10027,7 +10027,7 @@
         <v>652</v>
       </c>
       <c r="G14" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H14" s="16"/>
     </row>
@@ -10039,7 +10039,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>650</v>
@@ -10052,7 +10052,7 @@
         <v>652</v>
       </c>
       <c r="G15" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H15" s="16"/>
     </row>
@@ -10064,7 +10064,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>651</v>
@@ -10077,7 +10077,7 @@
         <v>652</v>
       </c>
       <c r="G16" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H16" s="16"/>
     </row>
@@ -10092,7 +10092,7 @@
         <v>344</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -10107,7 +10107,7 @@
         <v>344</v>
       </c>
       <c r="C18" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>352</v>
@@ -10119,7 +10119,7 @@
         <v>408</v>
       </c>
       <c r="G18" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H18" s="16"/>
     </row>
@@ -10131,7 +10131,7 @@
         <v>344</v>
       </c>
       <c r="C19" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>353</v>
@@ -10143,7 +10143,7 @@
         <v>408</v>
       </c>
       <c r="G19" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H19" s="16"/>
     </row>
@@ -10155,7 +10155,7 @@
         <v>344</v>
       </c>
       <c r="C20" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>354</v>
@@ -10167,7 +10167,7 @@
         <v>408</v>
       </c>
       <c r="G20" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H20" s="16"/>
     </row>
@@ -10179,7 +10179,7 @@
         <v>344</v>
       </c>
       <c r="C21" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>355</v>
@@ -10191,7 +10191,7 @@
         <v>408</v>
       </c>
       <c r="G21" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H21" s="16"/>
     </row>
@@ -10203,7 +10203,7 @@
         <v>344</v>
       </c>
       <c r="C22" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>356</v>
@@ -10215,7 +10215,7 @@
         <v>408</v>
       </c>
       <c r="G22" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H22" s="16"/>
     </row>
@@ -10227,7 +10227,7 @@
         <v>344</v>
       </c>
       <c r="C23" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>357</v>
@@ -10239,7 +10239,7 @@
         <v>408</v>
       </c>
       <c r="G23" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H23" s="16"/>
     </row>
@@ -10251,7 +10251,7 @@
         <v>344</v>
       </c>
       <c r="C24" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>404</v>
@@ -10263,7 +10263,7 @@
         <v>408</v>
       </c>
       <c r="G24" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H24" s="16"/>
     </row>
@@ -10275,7 +10275,7 @@
         <v>344</v>
       </c>
       <c r="C25" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>409</v>
@@ -10287,7 +10287,7 @@
         <v>408</v>
       </c>
       <c r="G25" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H25" s="16"/>
     </row>
@@ -10302,7 +10302,7 @@
         <v>339</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
@@ -10317,7 +10317,7 @@
         <v>339</v>
       </c>
       <c r="C27" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>358</v>
@@ -10329,7 +10329,7 @@
         <v>408</v>
       </c>
       <c r="G27" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H27" s="16"/>
     </row>
@@ -10341,7 +10341,7 @@
         <v>339</v>
       </c>
       <c r="C28" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>359</v>
@@ -10353,7 +10353,7 @@
         <v>408</v>
       </c>
       <c r="G28" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H28" s="16"/>
     </row>
@@ -10365,7 +10365,7 @@
         <v>339</v>
       </c>
       <c r="C29" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>360</v>
@@ -10377,7 +10377,7 @@
         <v>408</v>
       </c>
       <c r="G29" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H29" s="16"/>
     </row>
@@ -10389,7 +10389,7 @@
         <v>339</v>
       </c>
       <c r="C30" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>361</v>
@@ -10401,7 +10401,7 @@
         <v>408</v>
       </c>
       <c r="G30" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H30" s="16"/>
     </row>
@@ -10413,7 +10413,7 @@
         <v>339</v>
       </c>
       <c r="C31" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>362</v>
@@ -10425,7 +10425,7 @@
         <v>408</v>
       </c>
       <c r="G31" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -10436,7 +10436,7 @@
         <v>339</v>
       </c>
       <c r="C32" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>363</v>
@@ -10448,7 +10448,7 @@
         <v>408</v>
       </c>
       <c r="G32" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -10459,7 +10459,7 @@
         <v>339</v>
       </c>
       <c r="C33" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>405</v>
@@ -10471,7 +10471,7 @@
         <v>408</v>
       </c>
       <c r="G33" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -10482,7 +10482,7 @@
         <v>339</v>
       </c>
       <c r="C34" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>410</v>
@@ -10494,7 +10494,7 @@
         <v>408</v>
       </c>
       <c r="G34" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -10508,7 +10508,7 @@
         <v>14</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -10522,7 +10522,7 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D36" t="s">
         <v>573</v>
@@ -10539,7 +10539,7 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D37" t="s">
         <v>574</v>
@@ -10556,7 +10556,7 @@
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D38" t="s">
         <v>575</v>
@@ -10587,7 +10587,7 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D40" t="s">
         <v>577</v>
@@ -10604,7 +10604,7 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D41" t="s">
         <v>578</v>
@@ -10621,7 +10621,7 @@
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D42" t="s">
         <v>579</v>
@@ -10657,15 +10657,15 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5234375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.61328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.61328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.62890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -10679,7 +10679,7 @@
         <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E1" t="s">
         <v>466</v>
@@ -10907,16 +10907,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C10" t="s">
         <v>109</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="G10" t="s">
         <v>220</v>
@@ -10939,15 +10939,15 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="101.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.3671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.84375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.4609375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.47265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11359,8 +11359,8 @@
         <v>10.15684032562535</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1"/>
-    <row r="21" spans="1:7" ht="18.899999999999999" thickBot="1">
+    <row r="20" spans="1:7" ht="14.7" thickBot="1"/>
+    <row r="21" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A21" s="33" t="s">
         <v>749</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.899999999999999">
+    <row r="22" spans="1:7" ht="18.3">
       <c r="A22" s="35" t="s">
         <v>751</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>0.62734923682224519</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.899999999999999">
+    <row r="23" spans="1:7" ht="18.3">
       <c r="A23" s="35" t="s">
         <v>752</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>0.59094724233430884</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.899999999999999">
+    <row r="24" spans="1:7" ht="18.3">
       <c r="A24" s="35" t="s">
         <v>753</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>0.22023740341887449</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.899999999999999">
+    <row r="25" spans="1:7" ht="18.3">
       <c r="A25" s="35" t="s">
         <v>17</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>0.20455607235356629</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.45">
+    <row r="26" spans="1:7" ht="18.3">
       <c r="A26" s="32" t="s">
         <v>19</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>0.67014411908957849</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.45">
+    <row r="27" spans="1:7" ht="18.3">
       <c r="A27" s="32" t="s">
         <v>754</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>0.22871823907329925</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.45">
+    <row r="28" spans="1:7" ht="18.3">
       <c r="A28" s="38" t="s">
         <v>18</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>7.8073048809150475E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.899999999999999">
+    <row r="29" spans="1:7" ht="18.3">
       <c r="A29" s="35" t="s">
         <v>755</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>0.35762334919410615</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.45">
+    <row r="30" spans="1:7" ht="18.3">
       <c r="A30" s="32" t="s">
         <v>756</v>
       </c>
@@ -11477,21 +11477,21 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="20.61328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.23046875" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.15234375" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="117.84375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.69140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.53515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.69140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.53515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.69140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.07421875" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.15234375" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.23046875" style="21"/>
+    <col min="1" max="1" width="20.62890625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.20703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.15625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="117.83984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.68359375" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5234375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.68359375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5234375" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.68359375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.734375" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.05078125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.15625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.20703125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -11499,7 +11499,7 @@
         <v>304</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>105</v>
@@ -11613,7 +11613,7 @@
         <v>375</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C7" s="21">
         <v>1</v>
@@ -12099,7 +12099,7 @@
         <v>307</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C29" s="21">
         <v>1</v>
@@ -12119,7 +12119,7 @@
         <v>317</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C30" s="21">
         <v>1</v>
@@ -12168,7 +12168,7 @@
         <v>725</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>849</v>
@@ -12182,7 +12182,7 @@
         <v>716</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>850</v>
@@ -12208,7 +12208,7 @@
         <v>486</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C36" s="47">
         <v>1</v>
@@ -12238,7 +12238,7 @@
         <v>828</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C37" s="47">
         <v>1</v>
@@ -12268,7 +12268,7 @@
         <v>829</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C38" s="47">
         <v>1</v>
@@ -12298,7 +12298,7 @@
         <v>488</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C39" s="21">
         <v>1</v>
@@ -12327,7 +12327,7 @@
         <v>484</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C40" s="21">
         <v>1</v>
@@ -12347,7 +12347,7 @@
         <v>485</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C41" s="21">
         <v>1</v>
@@ -12376,7 +12376,7 @@
         <v>813</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C42" s="21">
         <v>1</v>
@@ -12426,7 +12426,7 @@
         <v>442</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C45" s="21">
         <v>1</v>
@@ -12449,7 +12449,7 @@
         <v>445</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C46" s="21">
         <v>1</v>
@@ -12472,7 +12472,7 @@
         <v>795</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>799</v>
@@ -12489,7 +12489,7 @@
         <v>796</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>800</v>
@@ -12506,7 +12506,7 @@
         <v>797</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>801</v>
@@ -12523,7 +12523,7 @@
         <v>798</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>802</v>
@@ -12540,7 +12540,7 @@
         <v>496</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C51" s="21">
         <v>1</v>
@@ -12560,7 +12560,7 @@
         <v>530</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D52" s="24" t="s">
         <v>531</v>
@@ -12577,7 +12577,7 @@
         <v>533</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>534</v>
@@ -12594,7 +12594,7 @@
         <v>803</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>563</v>
@@ -12611,7 +12611,7 @@
         <v>804</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>564</v>
@@ -12628,7 +12628,7 @@
         <v>805</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>793</v>
@@ -12642,7 +12642,7 @@
         <v>806</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>794</v>
@@ -12656,7 +12656,7 @@
         <v>807</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>490</v>
@@ -12674,7 +12674,7 @@
         <v>808</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>492</v>
@@ -12692,7 +12692,7 @@
         <v>809</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>491</v>
@@ -12718,7 +12718,7 @@
         <v>810</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>493</v>
@@ -12744,7 +12744,7 @@
         <v>678</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>830</v>
@@ -12821,7 +12821,7 @@
         <v>718</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>841</v>
@@ -12838,10 +12838,10 @@
         <v>728</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E68" s="24" t="s">
         <v>444</v>
@@ -12855,10 +12855,10 @@
         <v>743</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E69" s="24" t="s">
         <v>444</v>
@@ -12872,7 +12872,7 @@
         <v>756</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C70" s="21">
         <v>1</v>
@@ -12889,7 +12889,7 @@
         <v>820</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C71" s="21">
         <v>1</v>
@@ -12909,7 +12909,7 @@
         <v>822</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C72" s="21">
         <v>1</v>
@@ -12924,12 +12924,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.6">
+    <row r="73" spans="1:6" ht="14.4">
       <c r="A73" s="24" t="s">
         <v>832</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D73" t="s">
         <v>831</v>
@@ -12938,12 +12938,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14.6">
+    <row r="74" spans="1:6" ht="14.4">
       <c r="A74" s="24" t="s">
         <v>833</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D74" t="s">
         <v>834</v>
@@ -12982,12 +12982,12 @@
         <v>340</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14.6">
+    <row r="77" spans="1:6" ht="14.4">
       <c r="A77" s="24" t="s">
         <v>835</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D77" t="s">
         <v>836</v>
@@ -13026,12 +13026,12 @@
         <v>340</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14.6">
+    <row r="80" spans="1:6" ht="14.4">
       <c r="A80" s="24" t="s">
         <v>844</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D80" t="s">
         <v>843</v>
@@ -13070,12 +13070,12 @@
         <v>340</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.6">
+    <row r="83" spans="1:6" ht="14.4">
       <c r="A83" s="24" t="s">
         <v>854</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D83" t="s">
         <v>859</v>
@@ -13128,9 +13128,9 @@
       <selection activeCell="L145" sqref="L145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.47265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/examples/OregonNd/model_config.OregonNd.xlsx
+++ b/examples/OregonNd/model_config.OregonNd.xlsx
@@ -3702,7 +3702,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4"/>
@@ -8863,8 +8863,8 @@
   </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4"/>
@@ -9488,6 +9488,9 @@
       </c>
     </row>
     <row r="36" spans="1:6">
+      <c r="A36">
+        <v>1</v>
+      </c>
       <c r="B36">
         <v>1</v>
       </c>
@@ -9502,6 +9505,9 @@
       </c>
     </row>
     <row r="37" spans="1:6">
+      <c r="A37">
+        <v>1</v>
+      </c>
       <c r="B37">
         <v>1</v>
       </c>
@@ -9516,9 +9522,6 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38">
-        <v>1</v>
-      </c>
       <c r="B38">
         <v>1</v>
       </c>
@@ -9536,9 +9539,6 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39">
-        <v>1</v>
-      </c>
       <c r="B39">
         <v>1</v>
       </c>

--- a/examples/OregonNd/model_config.OregonNd.xlsx
+++ b/examples/OregonNd/model_config.OregonNd.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-94" yWindow="-94" windowWidth="23134" windowHeight="9386" tabRatio="682"/>
+    <workbookView xWindow="-94" yWindow="-94" windowWidth="23134" windowHeight="9386" tabRatio="682" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="substances" sheetId="1" r:id="rId1"/>
-    <sheet name="parameters" sheetId="17" r:id="rId2"/>
-    <sheet name="reactions" sheetId="2" r:id="rId3"/>
-    <sheet name="speciation" sheetId="3" r:id="rId4"/>
-    <sheet name="adsorption" sheetId="22" r:id="rId5"/>
-    <sheet name="mineral" sheetId="21" r:id="rId6"/>
-    <sheet name="output" sheetId="18" r:id="rId7"/>
-    <sheet name="data" sheetId="23" r:id="rId8"/>
+    <sheet name="diffusion" sheetId="24" r:id="rId2"/>
+    <sheet name="parameters" sheetId="17" r:id="rId3"/>
+    <sheet name="reactions" sheetId="2" r:id="rId4"/>
+    <sheet name="speciation" sheetId="3" r:id="rId5"/>
+    <sheet name="adsorption" sheetId="22" r:id="rId6"/>
+    <sheet name="mineral" sheetId="21" r:id="rId7"/>
+    <sheet name="output" sheetId="18" r:id="rId8"/>
+    <sheet name="data" sheetId="23" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">data!$A$1:$H$311</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">output!$C$1:$C$83</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">parameters!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">data!$A$1:$H$311</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">output!$C$1:$C$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">parameters!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">substances!$A$1:$G$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3628" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="1049">
   <si>
     <t>type</t>
   </si>
@@ -3201,6 +3202,33 @@
   </si>
   <si>
     <t>Al_dis0</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>SedTrace_name</t>
+  </si>
+  <si>
+    <t>NO3{-}</t>
+  </si>
+  <si>
+    <t>NO2{-}</t>
+  </si>
+  <si>
+    <t>Ca{2+}</t>
+  </si>
+  <si>
+    <t>SO4{2-}</t>
+  </si>
+  <si>
+    <t>Nd{3+}</t>
+  </si>
+  <si>
+    <t>H4SiO4</t>
+  </si>
+  <si>
+    <t>Al_dis</t>
   </si>
 </sst>
 </file>
@@ -3422,7 +3450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3511,6 +3539,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3793,8 +3822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6"/>
@@ -4520,6 +4549,137 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6"/>
+  <cols>
+    <col min="1" max="1" width="11.69140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="50" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="50" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="50" t="s">
+        <v>965</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="50" t="s">
+        <v>964</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="50" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="50" t="s">
+        <v>966</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="50" t="s">
+        <v>967</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="50" t="s">
+        <v>968</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="50" t="s">
+        <v>397</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H195"/>
   <sheetViews>
@@ -8919,15 +9079,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:A39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6"/>
@@ -9551,6 +9711,9 @@
       </c>
     </row>
     <row r="36" spans="1:6">
+      <c r="A36">
+        <v>1</v>
+      </c>
       <c r="B36">
         <v>1</v>
       </c>
@@ -9565,6 +9728,9 @@
       </c>
     </row>
     <row r="37" spans="1:6">
+      <c r="A37">
+        <v>1</v>
+      </c>
       <c r="B37">
         <v>1</v>
       </c>
@@ -9579,9 +9745,6 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38">
-        <v>1</v>
-      </c>
       <c r="B38">
         <v>1</v>
       </c>
@@ -9599,9 +9762,6 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39">
-        <v>1</v>
-      </c>
       <c r="B39">
         <v>1</v>
       </c>
@@ -9763,7 +9923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
@@ -10839,7 +10999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -11121,7 +11281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -11659,12 +11819,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.15"/>
@@ -13281,11 +13441,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H379"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L145" sqref="L145"/>
     </sheetView>
   </sheetViews>

--- a/examples/OregonNd/model_config.OregonNd.xlsx
+++ b/examples/OregonNd/model_config.OregonNd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-94" yWindow="-94" windowWidth="23134" windowHeight="9386" tabRatio="682" activeTab="2"/>
+    <workbookView xWindow="-94" yWindow="-94" windowWidth="23134" windowHeight="9386" tabRatio="682" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="substances" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="1001">
   <si>
     <t>type</t>
   </si>
@@ -3073,6 +3073,18 @@
   </si>
   <si>
     <t>0.3/100*Fsed/86.94*1000</t>
+  </si>
+  <si>
+    <t>H4SiO4*Al_aq^0.36/H^1.08/KspBasalt</t>
+  </si>
+  <si>
+    <t>Ca^0.7*0.0547^0.84*Fe_aq^0.46*H4SiO4^2/H^4/KspCpx</t>
+  </si>
+  <si>
+    <t>Fe_aq^2*H4SiO4^3*Al_aq^2*0.0547^3/H^16/KspChl</t>
+  </si>
+  <si>
+    <t>Ca^0.29*0.4861^0.71*Al_aq^1.29*H4SiO4^2.71/H^5.16/KspPlag</t>
   </si>
 </sst>
 </file>
@@ -4588,7 +4600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -7899,8 +7911,8 @@
   </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6"/>
@@ -8452,7 +8464,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>1</v>
       </c>
@@ -8466,7 +8478,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>1</v>
       </c>
@@ -8480,7 +8492,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>1</v>
       </c>
@@ -8494,7 +8506,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>1</v>
       </c>
@@ -8511,7 +8523,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>1</v>
       </c>
@@ -8528,7 +8540,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7">
       <c r="B38">
         <v>1</v>
       </c>
@@ -8545,7 +8557,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7">
       <c r="B39">
         <v>1</v>
       </c>
@@ -8562,7 +8574,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7">
       <c r="C40" t="s">
         <v>784</v>
       </c>
@@ -8576,7 +8588,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7">
       <c r="C41" t="s">
         <v>785</v>
       </c>
@@ -8590,7 +8602,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:7">
       <c r="C42" t="s">
         <v>564</v>
       </c>
@@ -8601,7 +8613,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7">
       <c r="C43" t="s">
         <v>292</v>
       </c>
@@ -8612,10 +8624,13 @@
         <v>894</v>
       </c>
       <c r="F43" t="s">
+        <v>997</v>
+      </c>
+      <c r="G43" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7">
       <c r="C44" t="s">
         <v>601</v>
       </c>
@@ -8626,10 +8641,13 @@
         <v>715</v>
       </c>
       <c r="F44" t="s">
+        <v>998</v>
+      </c>
+      <c r="G44" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:7">
       <c r="C45" t="s">
         <v>607</v>
       </c>
@@ -8640,10 +8658,13 @@
         <v>716</v>
       </c>
       <c r="F45" t="s">
+        <v>999</v>
+      </c>
+      <c r="G45" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7">
       <c r="C46" t="s">
         <v>595</v>
       </c>
@@ -8654,10 +8675,13 @@
         <v>895</v>
       </c>
       <c r="F46" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G46" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7">
       <c r="C47" t="s">
         <v>310</v>
       </c>
@@ -8668,7 +8692,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7">
       <c r="C48" t="s">
         <v>602</v>
       </c>

--- a/examples/OregonNd/model_config.OregonNd.xlsx
+++ b/examples/OregonNd/model_config.OregonNd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-94" yWindow="-94" windowWidth="23134" windowHeight="9386" tabRatio="682" activeTab="3"/>
+    <workbookView xWindow="-94" yWindow="-94" windowWidth="23134" windowHeight="9386" tabRatio="682" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="substances" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="975">
   <si>
     <t>type</t>
   </si>
@@ -1866,12 +1866,6 @@
     <t>(Ca)[0.29](Na)[0.71](Al)[1.29](Si)[2.71]O8 + 5.16*H{+} +2.84*H2O= 0.29*Ca{2+} + 0.71*Na{+} + 1.29*Al{3+} + 2.71*H4SiO4</t>
   </si>
   <si>
-    <t>RPlag_dis_Nd</t>
-  </si>
-  <si>
-    <t>RPlag_dis</t>
-  </si>
-  <si>
     <t>Plag</t>
   </si>
   <si>
@@ -1887,12 +1881,6 @@
     <t>Cpx</t>
   </si>
   <si>
-    <t>RCpx_dis</t>
-  </si>
-  <si>
-    <t>RCpx_dis_Nd</t>
-  </si>
-  <si>
     <t>Nd_Cpx</t>
   </si>
   <si>
@@ -1902,12 +1890,6 @@
     <t>LLNL</t>
   </si>
   <si>
-    <t>RChl_dis_Nd</t>
-  </si>
-  <si>
-    <t>RChl_dis</t>
-  </si>
-  <si>
     <t>Mg3Fe2Al2Si3O10(OH)[8] + 16*H{+}  = 2*Fe{2+}  + 3*H4SiO4  + 2*Al{3+} + 6*H2O  + 3*Mg{2+}</t>
   </si>
   <si>
@@ -2136,9 +2118,6 @@
     <t>Plag*rNdSi_lith*2.71</t>
   </si>
   <si>
-    <t>(Ca)[0.7](Mg)[0.84](FE)[0.46]Si2O6 + 4*H{+} + 2*H2O = 0.7*Ca{2+} + 0.84*Mg{2+} + 0.46*FE{2+} + 2*H4SiO4</t>
-  </si>
-  <si>
     <t>Omega_plag</t>
   </si>
   <si>
@@ -2199,21 +2178,9 @@
     <t>Mg3FE2Al2Si3O10(OH)[8]</t>
   </si>
   <si>
-    <t>Mg3FE2Al2Si3O10(OH)[8] + 16*H{+}  = 2*FE{2+}  + 3*H4SiO4  + 2*Al{3+} + 6*H2O  + 3*Mg{2+}</t>
-  </si>
-  <si>
     <t>RBasalt_dis*dstopw</t>
   </si>
   <si>
-    <t>RCpx_dis*2*dstopw</t>
-  </si>
-  <si>
-    <t>RChl_dis*3*dstopw</t>
-  </si>
-  <si>
-    <t>RPlag_dis*2.71*dstopw</t>
-  </si>
-  <si>
     <t>MBasalt</t>
   </si>
   <si>
@@ -2229,12 +2196,6 @@
     <t>(K)[0.85](Al)[2.85](Si)[3.15]O10(OH)[2]</t>
   </si>
   <si>
-    <t>kCpx*Cpx*(1-Omega_RCpx_dis)/a_lith0</t>
-  </si>
-  <si>
-    <t>kChl*Chl*(1-Omega_RChl_dis)/a_lith0</t>
-  </si>
-  <si>
     <t>(RMnO2POC*2+RMnO2H2S+RMnO2Fe/2)*SurfMn_Ndnr/MnO2</t>
   </si>
   <si>
@@ -2436,24 +2397,6 @@
     <t>Al{3+} = Al{3+}</t>
   </si>
   <si>
-    <t>RNdnrPO4_dis</t>
-  </si>
-  <si>
-    <t>RNdrPO4_dis</t>
-  </si>
-  <si>
-    <t>NdnrPO4 = Ndnr{3+} + PO4{3-}</t>
-  </si>
-  <si>
-    <t>NdrPO4 = Ndr{3+} + PO4{3-}</t>
-  </si>
-  <si>
-    <t>kNdPO4_pre*NdnrPO4/(NdnrPO4+NdrPO4)*(1-Omega_RNdnrPO4_pre)*pwtods</t>
-  </si>
-  <si>
-    <t>kNdPO4_pre*NdrPO4/(NdnrPO4+NdrPO4)*(1-Omega_RNdrPO4_pre)*pwtods</t>
-  </si>
-  <si>
     <t>NH4_ads</t>
   </si>
   <si>
@@ -2769,9 +2712,6 @@
     <t>kBasalt*Basalt*H*0.6701/(Al_aq*0.0781)^(1/3)*(1-Omega_RBasalt_dis)/a_lith0</t>
   </si>
   <si>
-    <t>kPlag*Plag*(1-Omega_RPlag_dis)*(H^3*0.6701^3/Al_aq/0.0781)^0.35/a_lith0</t>
-  </si>
-  <si>
     <t>Fe_aq*HS/(H*KspFeS)</t>
   </si>
   <si>
@@ -2784,15 +2724,6 @@
     <t>10^(log10(H4SiO4)+log10(Al_aq)*0.36-log10(H)*1.08-log10(KspBasalt))</t>
   </si>
   <si>
-    <t>10^(log10(Ca)*0.7+log10(0.0547)*0.84+log10(Fe_aq)*0.46+log10(H4SiO4)*2-log10(H)*4-log10(KspCpx))</t>
-  </si>
-  <si>
-    <t>10^(log10(Fe_aq)*2+log10(H4SiO4)*3+log10(Al_aq)*2+log10(0.0547)*3-log10(H)*16-log10(KspChl))</t>
-  </si>
-  <si>
-    <t>10^(log10(Ca)*0.29+log10(0.4861)*0.71+log10(Al_aq)*1.29+log10(H4SiO4)*2.71-log10(H)*5.16-log10(KspPlag))</t>
-  </si>
-  <si>
     <t>kNdPO4_pre*(Ndnr_aq*PO4/KspNdPO4-NdnrPO4/(NdnrPO4+NdrPO4))</t>
   </si>
   <si>
@@ -3076,15 +3007,6 @@
   </si>
   <si>
     <t>H4SiO4*Al_aq^0.36/H^1.08/KspBasalt</t>
-  </si>
-  <si>
-    <t>Ca^0.7*0.0547^0.84*Fe_aq^0.46*H4SiO4^2/H^4/KspCpx</t>
-  </si>
-  <si>
-    <t>Fe_aq^2*H4SiO4^3*Al_aq^2*0.0547^3/H^16/KspChl</t>
-  </si>
-  <si>
-    <t>Ca^0.29*0.4861^0.71*Al_aq^1.29*H4SiO4^2.71/H^5.16/KspPlag</t>
   </si>
 </sst>
 </file>
@@ -3693,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>208</v>
@@ -3997,7 +3919,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>212</v>
@@ -4016,7 +3938,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>212</v>
@@ -4030,13 +3952,13 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="23" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>212</v>
@@ -4049,13 +3971,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="23" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>212</v>
@@ -4068,13 +3990,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>212</v>
@@ -4133,7 +4055,7 @@
         <v>445</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>963</v>
+        <v>940</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="8" t="s">
@@ -4154,7 +4076,7 @@
         <v>446</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>963</v>
+        <v>940</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="8" t="s">
@@ -4235,7 +4157,7 @@
         <v>18</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>963</v>
+        <v>940</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="23" t="s">
@@ -4253,10 +4175,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>963</v>
+        <v>940</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="8" t="s">
@@ -4298,7 +4220,7 @@
         <v>418</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>963</v>
+        <v>940</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23" t="s">
@@ -4319,7 +4241,7 @@
         <v>419</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>963</v>
+        <v>940</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23" t="s">
@@ -4340,7 +4262,7 @@
         <v>377</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>964</v>
+        <v>941</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="8" t="s">
@@ -4361,7 +4283,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>964</v>
+        <v>941</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="8" t="s">
@@ -4382,7 +4304,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>964</v>
+        <v>941</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="8" t="s">
@@ -4403,7 +4325,7 @@
         <v>203</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>964</v>
+        <v>941</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="8" t="s">
@@ -4424,7 +4346,7 @@
         <v>312</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>964</v>
+        <v>941</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="8" t="s">
@@ -4445,7 +4367,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>964</v>
+        <v>941</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="8" t="s">
@@ -4481,10 +4403,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="45" t="s">
-        <v>927</v>
+        <v>904</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>928</v>
+        <v>905</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4500,23 +4422,23 @@
         <v>13</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>929</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="45" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="45" t="s">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4532,7 +4454,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>930</v>
+        <v>907</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4540,23 +4462,23 @@
         <v>17</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>931</v>
+        <v>908</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="45" t="s">
-        <v>935</v>
+        <v>912</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="45" t="s">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>905</v>
+        <v>882</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4564,23 +4486,23 @@
         <v>102</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>932</v>
+        <v>909</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="45" t="s">
-        <v>876</v>
+        <v>857</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>933</v>
+        <v>910</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="45" t="s">
-        <v>877</v>
+        <v>858</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>933</v>
+        <v>910</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4588,7 +4510,7 @@
         <v>377</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>934</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -4600,8 +4522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117:XFD129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6"/>
@@ -4819,7 +4741,7 @@
         <v>159</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>970</v>
+        <v>947</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>536</v>
@@ -4871,7 +4793,7 @@
         <v>531</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>971</v>
+        <v>948</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>536</v>
@@ -4976,7 +4898,7 @@
         <v>531</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>972</v>
+        <v>949</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>349</v>
@@ -4987,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>965</v>
+        <v>942</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>186</v>
@@ -5026,10 +4948,10 @@
         <v>501</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>968</v>
+        <v>945</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>973</v>
+        <v>950</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>349</v>
@@ -5053,7 +4975,7 @@
         <v>1.93554531569282</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>968</v>
+        <v>945</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>191</v>
@@ -5108,7 +5030,7 @@
         <v>166</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>974</v>
+        <v>951</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>349</v>
@@ -5172,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>186</v>
@@ -5187,7 +5109,7 @@
         <v>264</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>267</v>
@@ -5198,7 +5120,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>186</v>
@@ -5213,7 +5135,7 @@
         <v>152</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>537</v>
@@ -5224,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>186</v>
@@ -5239,7 +5161,7 @@
         <v>152</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>537</v>
@@ -5250,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>186</v>
@@ -5265,7 +5187,7 @@
         <v>152</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>537</v>
@@ -5276,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>186</v>
@@ -5291,7 +5213,7 @@
         <v>152</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>537</v>
@@ -5302,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>186</v>
@@ -5317,7 +5239,7 @@
         <v>152</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5325,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>186</v>
@@ -5340,7 +5262,7 @@
         <v>152</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5348,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>186</v>
@@ -5360,10 +5282,10 @@
         <v>165</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>969</v>
+        <v>946</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>515</v>
@@ -5435,7 +5357,7 @@
         <v>249</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>996</v>
+        <v>973</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>228</v>
@@ -5597,7 +5519,7 @@
         <v>275</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>976</v>
+        <v>953</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>349</v>
@@ -5692,7 +5614,7 @@
         <v>186</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>906</v>
+        <v>883</v>
       </c>
       <c r="E42" s="9">
         <v>5.0000000000000003E-10</v>
@@ -5701,7 +5623,7 @@
         <v>236</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>977</v>
+        <v>954</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>538</v>
@@ -5718,7 +5640,7 @@
         <v>186</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>907</v>
+        <v>884</v>
       </c>
       <c r="E43" s="9">
         <v>5.0000000000000003E-10</v>
@@ -5727,7 +5649,7 @@
         <v>236</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>538</v>
@@ -5744,7 +5666,7 @@
         <v>186</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>945</v>
+        <v>922</v>
       </c>
       <c r="E44" s="9">
         <v>5.0000000000000003E-10</v>
@@ -5753,7 +5675,7 @@
         <v>236</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>538</v>
@@ -5874,7 +5796,7 @@
         <v>186</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>908</v>
+        <v>885</v>
       </c>
       <c r="E49" s="9">
         <v>0</v>
@@ -5883,7 +5805,7 @@
         <v>236</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>349</v>
@@ -5900,16 +5822,16 @@
         <v>186</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>936</v>
+        <v>913</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>926</v>
+        <v>903</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>236</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>981</v>
+        <v>958</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -5932,7 +5854,7 @@
         <v>236</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>353</v>
@@ -5958,7 +5880,7 @@
         <v>236</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>983</v>
+        <v>960</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>353</v>
@@ -6053,16 +5975,16 @@
         <v>186</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>941</v>
+        <v>918</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>942</v>
+        <v>919</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>228</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>984</v>
+        <v>961</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>539</v>
@@ -6079,16 +6001,16 @@
         <v>186</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>944</v>
+        <v>921</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>228</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>985</v>
+        <v>962</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>540</v>
@@ -6151,7 +6073,7 @@
         <v>186</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>909</v>
+        <v>886</v>
       </c>
       <c r="E60" s="9">
         <f>E58/((E59/10000+1)*0.512638+1)</f>
@@ -6161,7 +6083,7 @@
         <v>236</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>986</v>
+        <v>963</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>543</v>
@@ -6178,7 +6100,7 @@
         <v>186</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>910</v>
+        <v>887</v>
       </c>
       <c r="E61" s="9">
         <f>E58-E60</f>
@@ -6188,7 +6110,7 @@
         <v>236</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>987</v>
+        <v>964</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>543</v>
@@ -6235,7 +6157,7 @@
         <v>228</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>988</v>
+        <v>965</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>546</v>
@@ -6262,7 +6184,7 @@
         <v>228</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>989</v>
+        <v>966</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>546</v>
@@ -6279,16 +6201,16 @@
         <v>186</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>937</v>
+        <v>914</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>938</v>
+        <v>915</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>228</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>990</v>
+        <v>967</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>544</v>
@@ -6305,16 +6227,16 @@
         <v>186</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>940</v>
+        <v>917</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>939</v>
+        <v>916</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>228</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>991</v>
+        <v>968</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>545</v>
@@ -6380,13 +6302,13 @@
         <v>476</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>911</v>
+        <v>888</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>228</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>992</v>
+        <v>969</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>544</v>
@@ -6406,13 +6328,13 @@
         <v>477</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>912</v>
+        <v>889</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>228</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>993</v>
+        <v>970</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>545</v>
@@ -6432,13 +6354,13 @@
         <v>478</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>913</v>
+        <v>890</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>228</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>994</v>
+        <v>971</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>544</v>
@@ -6458,13 +6380,13 @@
         <v>479</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>914</v>
+        <v>891</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>228</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>995</v>
+        <v>972</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>545</v>
@@ -6478,7 +6400,7 @@
         <v>186</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E73" s="39">
         <v>0</v>
@@ -6487,7 +6409,7 @@
         <v>274</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -6501,7 +6423,7 @@
         <v>303</v>
       </c>
       <c r="E74" s="39" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>228</v>
@@ -6518,7 +6440,7 @@
         <v>186</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="E75" s="9">
         <v>2</v>
@@ -6527,7 +6449,7 @@
         <v>274</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -6541,7 +6463,7 @@
         <v>551</v>
       </c>
       <c r="E76" s="39" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>228</v>
@@ -6613,7 +6535,7 @@
         <v>117</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>269</v>
@@ -7567,7 +7489,7 @@
         <v>186</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="E116" s="40">
         <v>2.5000000000000001E-3</v>
@@ -7581,19 +7503,19 @@
         <v>186</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E117" s="9">
         <v>1.7E-5</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>967</v>
+        <v>944</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>293</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -7604,13 +7526,13 @@
         <v>186</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E118" s="39">
         <v>6.2</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -7621,10 +7543,10 @@
         <v>186</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E119" s="39" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -7635,10 +7557,10 @@
         <v>186</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E120" s="39" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -7649,7 +7571,7 @@
         <v>186</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="E121" s="39">
         <v>100</v>
@@ -7658,7 +7580,7 @@
         <v>114</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -7693,7 +7615,7 @@
         <v>556</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -7738,7 +7660,7 @@
         <v>186</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E126" s="9">
         <f>10^(-19)/10000*365*24*3600</f>
@@ -7748,7 +7670,7 @@
         <v>299</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -7769,7 +7691,7 @@
         <v>166</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -7807,7 +7729,7 @@
         <v>295</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="130" spans="2:8">
@@ -7818,7 +7740,7 @@
         <v>186</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="E130" s="39">
         <v>88.16</v>
@@ -7844,7 +7766,7 @@
         <v>301</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="132" spans="2:8">
@@ -7855,7 +7777,7 @@
         <v>186</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="E132" s="9">
         <f>0.000108*EXP(-E131/8.314/(273.15+2))*365*24*3600/10000</f>
@@ -7865,7 +7787,7 @@
         <v>299</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="133" spans="2:8">
@@ -7886,7 +7808,7 @@
         <v>166</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="134" spans="2:8">
@@ -7909,10 +7831,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD37"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6"/>
@@ -7931,7 +7853,7 @@
         <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="C1" t="s">
         <v>48</v>
@@ -8099,7 +8021,7 @@
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8116,7 +8038,7 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8127,10 +8049,10 @@
         <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>946</v>
+        <v>923</v>
       </c>
       <c r="E12" t="s">
-        <v>947</v>
+        <v>924</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8147,7 +8069,7 @@
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -8158,10 +8080,10 @@
         <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>958</v>
+        <v>935</v>
       </c>
       <c r="E14" t="s">
-        <v>948</v>
+        <v>925</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8229,7 +8151,7 @@
         <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8263,7 +8185,7 @@
         <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8334,7 +8256,7 @@
         <v>91</v>
       </c>
       <c r="F24" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8351,10 +8273,10 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>892</v>
+        <v>873</v>
       </c>
       <c r="F25" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -8385,13 +8307,13 @@
         <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
       <c r="E27" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="F27" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -8402,10 +8324,10 @@
         <v>462</v>
       </c>
       <c r="D28" t="s">
-        <v>950</v>
+        <v>927</v>
       </c>
       <c r="E28" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8416,10 +8338,10 @@
         <v>463</v>
       </c>
       <c r="D29" t="s">
-        <v>951</v>
+        <v>928</v>
       </c>
       <c r="E29" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -8430,10 +8352,10 @@
         <v>464</v>
       </c>
       <c r="D30" t="s">
-        <v>952</v>
+        <v>929</v>
       </c>
       <c r="E30" t="s">
-        <v>959</v>
+        <v>936</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8444,10 +8366,10 @@
         <v>465</v>
       </c>
       <c r="D31" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="E31" t="s">
-        <v>960</v>
+        <v>937</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -8458,10 +8380,10 @@
         <v>466</v>
       </c>
       <c r="D32" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="E32" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -8472,10 +8394,10 @@
         <v>467</v>
       </c>
       <c r="D33" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="E33" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -8486,10 +8408,10 @@
         <v>468</v>
       </c>
       <c r="D34" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
       <c r="E34" t="s">
-        <v>961</v>
+        <v>938</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -8500,10 +8422,10 @@
         <v>469</v>
       </c>
       <c r="D35" t="s">
-        <v>957</v>
+        <v>934</v>
       </c>
       <c r="E35" t="s">
-        <v>962</v>
+        <v>939</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -8520,7 +8442,7 @@
         <v>315</v>
       </c>
       <c r="E36" t="s">
-        <v>903</v>
+        <v>880</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -8537,7 +8459,7 @@
         <v>317</v>
       </c>
       <c r="E37" t="s">
-        <v>904</v>
+        <v>881</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -8554,7 +8476,7 @@
         <v>416</v>
       </c>
       <c r="F38" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -8571,158 +8493,46 @@
         <v>417</v>
       </c>
       <c r="F39" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="C40" t="s">
-        <v>784</v>
+        <v>564</v>
       </c>
       <c r="D40" t="s">
-        <v>786</v>
+        <v>579</v>
       </c>
       <c r="E40" t="s">
-        <v>788</v>
-      </c>
-      <c r="F40" t="s">
-        <v>897</v>
+        <v>874</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="C41" t="s">
-        <v>785</v>
+        <v>292</v>
       </c>
       <c r="D41" t="s">
-        <v>787</v>
+        <v>386</v>
       </c>
       <c r="E41" t="s">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="F41" t="s">
-        <v>898</v>
+        <v>974</v>
+      </c>
+      <c r="G41" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="C42" t="s">
-        <v>564</v>
+        <v>310</v>
       </c>
       <c r="D42" t="s">
-        <v>579</v>
+        <v>637</v>
       </c>
       <c r="E42" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="C43" t="s">
-        <v>292</v>
-      </c>
-      <c r="D43" t="s">
-        <v>386</v>
-      </c>
-      <c r="E43" t="s">
-        <v>894</v>
-      </c>
-      <c r="F43" t="s">
-        <v>997</v>
-      </c>
-      <c r="G43" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="C44" t="s">
-        <v>601</v>
-      </c>
-      <c r="D44" t="s">
-        <v>684</v>
-      </c>
-      <c r="E44" t="s">
-        <v>715</v>
-      </c>
-      <c r="F44" t="s">
-        <v>998</v>
-      </c>
-      <c r="G44" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="C45" t="s">
-        <v>607</v>
-      </c>
-      <c r="D45" t="s">
-        <v>705</v>
-      </c>
-      <c r="E45" t="s">
-        <v>716</v>
-      </c>
-      <c r="F45" t="s">
-        <v>999</v>
-      </c>
-      <c r="G45" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="C46" t="s">
-        <v>595</v>
-      </c>
-      <c r="D46" t="s">
-        <v>593</v>
-      </c>
-      <c r="E46" t="s">
-        <v>895</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G46" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="C47" t="s">
-        <v>310</v>
-      </c>
-      <c r="D47" t="s">
-        <v>643</v>
-      </c>
-      <c r="E47" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="C48" t="s">
-        <v>602</v>
-      </c>
-      <c r="D48" t="s">
-        <v>643</v>
-      </c>
-      <c r="E48" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5">
-      <c r="C49" t="s">
-        <v>606</v>
-      </c>
-      <c r="D49" t="s">
-        <v>643</v>
-      </c>
-      <c r="E49" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5">
-      <c r="C50" t="s">
-        <v>594</v>
-      </c>
-      <c r="D50" t="s">
-        <v>643</v>
-      </c>
-      <c r="E50" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -8762,7 +8572,7 @@
         <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="E1" t="s">
         <v>35</v>
@@ -8785,13 +8595,13 @@
         <v>446</v>
       </c>
       <c r="C2" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="D2" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
       <c r="E2" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -8805,10 +8615,10 @@
         <v>446</v>
       </c>
       <c r="C3" t="s">
-        <v>856</v>
+        <v>837</v>
       </c>
       <c r="D3" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="E3" t="s">
         <v>368</v>
@@ -8820,7 +8630,7 @@
         <v>373</v>
       </c>
       <c r="H3" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8831,10 +8641,10 @@
         <v>446</v>
       </c>
       <c r="C4" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="D4" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="E4" t="s">
         <v>369</v>
@@ -8846,7 +8656,7 @@
         <v>373</v>
       </c>
       <c r="H4" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8857,10 +8667,10 @@
         <v>446</v>
       </c>
       <c r="C5" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="D5" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="E5" t="s">
         <v>96</v>
@@ -8872,7 +8682,7 @@
         <v>373</v>
       </c>
       <c r="H5" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8883,13 +8693,13 @@
         <v>446</v>
       </c>
       <c r="C6" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="D6" t="s">
-        <v>870</v>
+        <v>851</v>
       </c>
       <c r="E6" t="s">
-        <v>869</v>
+        <v>850</v>
       </c>
       <c r="F6" s="4">
         <v>2.9847888049491873</v>
@@ -8898,7 +8708,7 @@
         <v>373</v>
       </c>
       <c r="H6" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8909,10 +8719,10 @@
         <v>446</v>
       </c>
       <c r="C7" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
       <c r="D7" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="E7" t="s">
         <v>100</v>
@@ -8924,7 +8734,7 @@
         <v>373</v>
       </c>
       <c r="H7" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8932,10 +8742,10 @@
         <v>446</v>
       </c>
       <c r="C8" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
       <c r="D8" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="E8" t="s">
         <v>97</v>
@@ -8947,7 +8757,7 @@
         <v>373</v>
       </c>
       <c r="H8" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8958,10 +8768,10 @@
         <v>446</v>
       </c>
       <c r="C9" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="D9" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="E9" t="s">
         <v>95</v>
@@ -8973,7 +8783,7 @@
         <v>373</v>
       </c>
       <c r="H9" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -8984,10 +8794,10 @@
         <v>446</v>
       </c>
       <c r="C10" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
       <c r="D10" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="E10" t="s">
         <v>94</v>
@@ -8999,7 +8809,7 @@
         <v>373</v>
       </c>
       <c r="H10" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9010,13 +8820,13 @@
         <v>446</v>
       </c>
       <c r="C11" t="s">
-        <v>834</v>
+        <v>815</v>
       </c>
       <c r="D11" t="s">
-        <v>871</v>
+        <v>852</v>
       </c>
       <c r="E11" t="s">
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="F11" s="4">
         <f>-2.2-LOG10(0.6473/0.2241/0.6877)</f>
@@ -9026,7 +8836,7 @@
         <v>384</v>
       </c>
       <c r="H11" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9037,13 +8847,13 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="D12" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="E12" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -9057,10 +8867,10 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="D13" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>559</v>
@@ -9073,7 +8883,7 @@
         <v>563</v>
       </c>
       <c r="H13" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="I13" s="15"/>
     </row>
@@ -9085,10 +8895,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="D14" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>560</v>
@@ -9101,7 +8911,7 @@
         <v>563</v>
       </c>
       <c r="H14" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="I14" s="15"/>
     </row>
@@ -9113,10 +8923,10 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>861</v>
+        <v>842</v>
       </c>
       <c r="D15" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>561</v>
@@ -9129,7 +8939,7 @@
         <v>563</v>
       </c>
       <c r="H15" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="I15" s="15"/>
     </row>
@@ -9141,10 +8951,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="D16" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>562</v>
@@ -9157,7 +8967,7 @@
         <v>563</v>
       </c>
       <c r="H16" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="I16" s="15"/>
     </row>
@@ -9169,13 +8979,13 @@
         <v>418</v>
       </c>
       <c r="C17" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
       <c r="D17" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -9190,10 +9000,10 @@
         <v>418</v>
       </c>
       <c r="C18" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
       <c r="D18" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>318</v>
@@ -9205,7 +9015,7 @@
         <v>374</v>
       </c>
       <c r="H18" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="I18" s="15"/>
     </row>
@@ -9217,10 +9027,10 @@
         <v>418</v>
       </c>
       <c r="C19" t="s">
-        <v>863</v>
+        <v>844</v>
       </c>
       <c r="D19" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>319</v>
@@ -9232,7 +9042,7 @@
         <v>374</v>
       </c>
       <c r="H19" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="I19" s="15"/>
     </row>
@@ -9244,10 +9054,10 @@
         <v>418</v>
       </c>
       <c r="C20" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
       <c r="D20" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>320</v>
@@ -9259,7 +9069,7 @@
         <v>374</v>
       </c>
       <c r="H20" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="I20" s="15"/>
     </row>
@@ -9271,10 +9081,10 @@
         <v>418</v>
       </c>
       <c r="C21" t="s">
-        <v>839</v>
+        <v>820</v>
       </c>
       <c r="D21" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>321</v>
@@ -9286,7 +9096,7 @@
         <v>374</v>
       </c>
       <c r="H21" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="I21" s="15"/>
     </row>
@@ -9298,10 +9108,10 @@
         <v>418</v>
       </c>
       <c r="C22" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="D22" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>322</v>
@@ -9313,7 +9123,7 @@
         <v>374</v>
       </c>
       <c r="H22" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="I22" s="15"/>
     </row>
@@ -9325,10 +9135,10 @@
         <v>418</v>
       </c>
       <c r="C23" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
       <c r="D23" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>323</v>
@@ -9340,7 +9150,7 @@
         <v>374</v>
       </c>
       <c r="H23" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="I23" s="15"/>
     </row>
@@ -9352,10 +9162,10 @@
         <v>418</v>
       </c>
       <c r="C24" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="D24" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>370</v>
@@ -9367,7 +9177,7 @@
         <v>374</v>
       </c>
       <c r="H24" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="I24" s="15"/>
     </row>
@@ -9379,10 +9189,10 @@
         <v>418</v>
       </c>
       <c r="C25" t="s">
-        <v>864</v>
+        <v>845</v>
       </c>
       <c r="D25" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>375</v>
@@ -9394,7 +9204,7 @@
         <v>374</v>
       </c>
       <c r="H25" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="I25" s="15"/>
     </row>
@@ -9406,13 +9216,13 @@
         <v>419</v>
       </c>
       <c r="C26" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="D26" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -9427,10 +9237,10 @@
         <v>419</v>
       </c>
       <c r="C27" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="D27" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>324</v>
@@ -9442,7 +9252,7 @@
         <v>374</v>
       </c>
       <c r="H27" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="I27" s="15"/>
     </row>
@@ -9454,10 +9264,10 @@
         <v>419</v>
       </c>
       <c r="C28" t="s">
-        <v>865</v>
+        <v>846</v>
       </c>
       <c r="D28" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>325</v>
@@ -9469,7 +9279,7 @@
         <v>374</v>
       </c>
       <c r="H28" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="I28" s="15"/>
     </row>
@@ -9481,10 +9291,10 @@
         <v>419</v>
       </c>
       <c r="C29" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
       <c r="D29" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>326</v>
@@ -9496,7 +9306,7 @@
         <v>374</v>
       </c>
       <c r="H29" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="I29" s="15"/>
     </row>
@@ -9508,10 +9318,10 @@
         <v>419</v>
       </c>
       <c r="C30" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
       <c r="D30" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>327</v>
@@ -9523,7 +9333,7 @@
         <v>374</v>
       </c>
       <c r="H30" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="I30" s="15"/>
     </row>
@@ -9535,10 +9345,10 @@
         <v>419</v>
       </c>
       <c r="C31" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="D31" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>328</v>
@@ -9550,7 +9360,7 @@
         <v>374</v>
       </c>
       <c r="H31" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -9561,10 +9371,10 @@
         <v>419</v>
       </c>
       <c r="C32" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="D32" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>329</v>
@@ -9576,7 +9386,7 @@
         <v>374</v>
       </c>
       <c r="H32" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -9587,10 +9397,10 @@
         <v>419</v>
       </c>
       <c r="C33" t="s">
-        <v>849</v>
+        <v>830</v>
       </c>
       <c r="D33" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>371</v>
@@ -9602,7 +9412,7 @@
         <v>374</v>
       </c>
       <c r="H33" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -9613,10 +9423,10 @@
         <v>419</v>
       </c>
       <c r="C34" t="s">
-        <v>866</v>
+        <v>847</v>
       </c>
       <c r="D34" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>376</v>
@@ -9628,7 +9438,7 @@
         <v>374</v>
       </c>
       <c r="H34" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -9639,13 +9449,13 @@
         <v>445</v>
       </c>
       <c r="C35" t="s">
-        <v>850</v>
+        <v>831</v>
       </c>
       <c r="D35" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -9659,10 +9469,10 @@
         <v>445</v>
       </c>
       <c r="C36" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
       <c r="D36" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="E36" t="s">
         <v>486</v>
@@ -9679,10 +9489,10 @@
         <v>445</v>
       </c>
       <c r="C37" t="s">
-        <v>868</v>
+        <v>849</v>
       </c>
       <c r="D37" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="E37" t="s">
         <v>487</v>
@@ -9699,10 +9509,10 @@
         <v>445</v>
       </c>
       <c r="C38" t="s">
-        <v>851</v>
+        <v>832</v>
       </c>
       <c r="D38" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="E38" t="s">
         <v>488</v>
@@ -9719,7 +9529,7 @@
         <v>445</v>
       </c>
       <c r="C39" t="s">
-        <v>852</v>
+        <v>833</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -9736,10 +9546,10 @@
         <v>445</v>
       </c>
       <c r="C40" t="s">
-        <v>853</v>
+        <v>834</v>
       </c>
       <c r="D40" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="E40" t="s">
         <v>490</v>
@@ -9756,10 +9566,10 @@
         <v>445</v>
       </c>
       <c r="C41" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="D41" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="E41" t="s">
         <v>491</v>
@@ -9776,10 +9586,10 @@
         <v>445</v>
       </c>
       <c r="C42" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="D42" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="E42" t="s">
         <v>492</v>
@@ -9793,16 +9603,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="C43" t="s">
         <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>905</v>
+        <v>882</v>
       </c>
       <c r="E43" t="s">
-        <v>949</v>
+        <v>926</v>
       </c>
       <c r="F43" s="4">
         <v>0</v>
@@ -9857,7 +9667,7 @@
         <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="E1" t="s">
         <v>422</v>
@@ -9880,7 +9690,7 @@
         <v>418</v>
       </c>
       <c r="C2" t="s">
-        <v>876</v>
+        <v>857</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>423</v>
@@ -9889,7 +9699,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>878</v>
+        <v>859</v>
       </c>
       <c r="G2" t="s">
         <v>212</v>
@@ -9906,7 +9716,7 @@
         <v>418</v>
       </c>
       <c r="C3" t="s">
-        <v>876</v>
+        <v>857</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>424</v>
@@ -9915,7 +9725,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>879</v>
+        <v>860</v>
       </c>
       <c r="G3" t="s">
         <v>212</v>
@@ -9932,7 +9742,7 @@
         <v>419</v>
       </c>
       <c r="C4" t="s">
-        <v>877</v>
+        <v>858</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>425</v>
@@ -9941,7 +9751,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>880</v>
+        <v>861</v>
       </c>
       <c r="G4" t="s">
         <v>212</v>
@@ -9958,7 +9768,7 @@
         <v>419</v>
       </c>
       <c r="C5" t="s">
-        <v>877</v>
+        <v>858</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>426</v>
@@ -9967,7 +9777,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>881</v>
+        <v>862</v>
       </c>
       <c r="G5" t="s">
         <v>212</v>
@@ -9984,7 +9794,7 @@
         <v>446</v>
       </c>
       <c r="C6" t="s">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>447</v>
@@ -9993,7 +9803,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>882</v>
+        <v>863</v>
       </c>
       <c r="G6" t="s">
         <v>212</v>
@@ -10010,7 +9820,7 @@
         <v>446</v>
       </c>
       <c r="C7" t="s">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>449</v>
@@ -10019,7 +9829,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>883</v>
+        <v>864</v>
       </c>
       <c r="G7" t="s">
         <v>212</v>
@@ -10036,7 +9846,7 @@
         <v>445</v>
       </c>
       <c r="C8" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>448</v>
@@ -10045,7 +9855,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>884</v>
+        <v>865</v>
       </c>
       <c r="G8" t="s">
         <v>212</v>
@@ -10062,7 +9872,7 @@
         <v>445</v>
       </c>
       <c r="C9" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>450</v>
@@ -10071,7 +9881,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="G9" t="s">
         <v>212</v>
@@ -10085,16 +9895,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="C10" t="s">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>886</v>
+        <v>867</v>
       </c>
       <c r="G10" t="s">
         <v>211</v>
@@ -10204,7 +10014,7 @@
         <v>-8.3311304268017281</v>
       </c>
       <c r="E4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F4" t="s">
         <v>382</v>
@@ -10252,7 +10062,7 @@
         <v>414</v>
       </c>
       <c r="G6" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -10273,10 +10083,10 @@
         <v>387</v>
       </c>
       <c r="F7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10359,14 +10169,14 @@
         <v>380</v>
       </c>
       <c r="C11" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="D11" s="15">
         <f>12.21-LOG10(0.5909)*0.6-LOG10(0.2202)*0.25-LOG10(0.0781)*2.3+LOG10(0.6701)*8</f>
         <v>13.667406842922796</v>
       </c>
       <c r="E11" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F11" t="s">
         <v>414</v>
@@ -10453,7 +10263,7 @@
         <v>571</v>
       </c>
       <c r="F15" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -10471,66 +10281,66 @@
         <v>14.040890508177014</v>
       </c>
       <c r="E16" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F16" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B17" t="s">
         <v>380</v>
       </c>
       <c r="C17" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D17" s="15">
         <f>(11.5-LOG10(0.2046)*0.35-LOG10(0.2202)*0.42-LOG10(0.2287)*0.23+LOG10(0.6701)*2)*2</f>
         <v>23.633695551167239</v>
       </c>
       <c r="E17" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F17" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B18" t="s">
         <v>380</v>
       </c>
       <c r="C18" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D18" s="15">
         <f>70.2321-LOG10(0.2287)*2-LOG10(0.0781)*2-LOG10(0.2202)*3+LOG10(0.6701)*16</f>
         <v>72.918047546099331</v>
       </c>
       <c r="E18" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F18" t="s">
+        <v>600</v>
+      </c>
+      <c r="G18" t="s">
         <v>604</v>
-      </c>
-      <c r="G18" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B19" t="s">
         <v>380</v>
       </c>
       <c r="C19" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D19" s="15">
         <f>6.5-LOG10(EXP(169.7*1000/8.314*(1/(273.15+25)-1/(273.15+2))))-LOG10(0.0781)*2+LOG10(0.6701)*6</f>
@@ -10540,10 +10350,10 @@
     <row r="20" spans="1:7" ht="15" thickBot="1"/>
     <row r="21" spans="1:7" ht="18.899999999999999" thickBot="1">
       <c r="A21" s="28" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>558</v>
@@ -10551,7 +10361,7 @@
     </row>
     <row r="22" spans="1:7" ht="18.899999999999999">
       <c r="A22" s="30" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B22" s="31">
         <v>0.48609639923833198</v>
@@ -10562,7 +10372,7 @@
     </row>
     <row r="23" spans="1:7" ht="18.899999999999999">
       <c r="A23" s="30" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B23" s="31">
         <v>1.05780380610371E-2</v>
@@ -10573,7 +10383,7 @@
     </row>
     <row r="24" spans="1:7" ht="18.899999999999999">
       <c r="A24" s="30" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B24" s="31">
         <v>5.4743886275415397E-2</v>
@@ -10604,7 +10414,7 @@
     </row>
     <row r="27" spans="1:7" ht="18.45">
       <c r="A27" s="27" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B27" s="32"/>
       <c r="C27" s="31">
@@ -10622,7 +10432,7 @@
     </row>
     <row r="29" spans="1:7" ht="18.899999999999999">
       <c r="A29" s="30" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B29" s="37">
         <v>6.8924116309912703E-5</v>
@@ -10633,7 +10443,7 @@
     </row>
     <row r="30" spans="1:7" ht="18.45">
       <c r="A30" s="27" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B30" s="38"/>
       <c r="C30" s="37">
@@ -10677,7 +10487,7 @@
         <v>277</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>99</v>
@@ -10791,7 +10601,7 @@
         <v>341</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="C7" s="20">
         <v>1</v>
@@ -10867,13 +10677,13 @@
         <v>10</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>274</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -10935,7 +10745,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="E15" s="21">
         <v>1000000</v>
@@ -10963,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="E16" s="21">
         <v>1000000</v>
@@ -11091,7 +10901,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="E21" s="21">
         <v>1000000</v>
@@ -11286,7 +11096,7 @@
         <v>280</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="C29" s="20">
         <v>1</v>
@@ -11306,7 +11116,7 @@
         <v>290</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="C30" s="20">
         <v>1</v>
@@ -11332,7 +11142,7 @@
         <v>297</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F31" s="20" t="s">
         <v>274</v>
@@ -11344,7 +11154,7 @@
       </c>
       <c r="B32" s="23"/>
       <c r="E32" s="23" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>274</v>
@@ -11352,13 +11162,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="23" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>274</v>
@@ -11366,13 +11176,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>274</v>
@@ -11380,11 +11190,11 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="23" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B35" s="23"/>
       <c r="E35" s="23" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>274</v>
@@ -11395,13 +11205,13 @@
         <v>433</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="C36" s="42">
         <v>1</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
       <c r="E36" s="43">
         <v>1000000000000</v>
@@ -11422,13 +11232,13 @@
     </row>
     <row r="37" spans="1:10" s="42" customFormat="1">
       <c r="A37" s="41" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>876</v>
+        <v>857</v>
       </c>
       <c r="E37" s="43">
         <v>1000000000000</v>
@@ -11449,13 +11259,13 @@
     </row>
     <row r="38" spans="1:10" s="42" customFormat="1">
       <c r="A38" s="41" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>877</v>
+        <v>858</v>
       </c>
       <c r="E38" s="43">
         <v>1000000000000</v>
@@ -11479,13 +11289,13 @@
         <v>434</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="C39" s="20">
         <v>1</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>916</v>
+        <v>893</v>
       </c>
       <c r="E39" s="20">
         <v>1</v>
@@ -11508,7 +11318,7 @@
         <v>431</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="C40" s="20">
         <v>1</v>
@@ -11528,7 +11338,7 @@
         <v>432</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C41" s="20">
         <v>1</v>
@@ -11554,16 +11364,16 @@
     </row>
     <row r="42" spans="1:10" ht="13.75" customHeight="1">
       <c r="A42" s="23" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="C42" s="20">
         <v>1</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>917</v>
+        <v>894</v>
       </c>
       <c r="E42" s="23">
         <v>1</v>
@@ -11575,7 +11385,7 @@
         <v>404</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="C43" s="20">
         <v>1</v>
@@ -11598,7 +11408,7 @@
         <v>407</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="C44" s="20">
         <v>1</v>
@@ -11618,13 +11428,13 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="23" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>406</v>
@@ -11635,13 +11445,13 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="23" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E46" s="23">
         <v>1</v>
@@ -11652,13 +11462,13 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="23" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>406</v>
@@ -11669,13 +11479,13 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="23" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E48" s="23">
         <v>1</v>
@@ -11689,13 +11499,13 @@
         <v>441</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="C49" s="20">
         <v>1</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>918</v>
+        <v>895</v>
       </c>
       <c r="E49" s="20">
         <v>1</v>
@@ -11709,7 +11519,7 @@
         <v>455</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>456</v>
@@ -11726,7 +11536,7 @@
         <v>458</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="D51" s="23" t="s">
         <v>459</v>
@@ -11740,10 +11550,10 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="23" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>480</v>
@@ -11757,10 +11567,10 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="23" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>481</v>
@@ -11774,13 +11584,13 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="23" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="E54" s="20">
         <v>1</v>
@@ -11788,13 +11598,13 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="23" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="E55" s="20">
         <v>1</v>
@@ -11802,10 +11612,10 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="23" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>435</v>
@@ -11820,10 +11630,10 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="23" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="D57" s="23" t="s">
         <v>437</v>
@@ -11838,10 +11648,10 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="23" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="D58" s="23" t="s">
         <v>436</v>
@@ -11864,10 +11674,10 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="23" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="D59" s="23" t="s">
         <v>438</v>
@@ -11893,10 +11703,10 @@
         <v>583</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>406</v>
@@ -11967,13 +11777,13 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="23" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E65" s="23" t="s">
         <v>406</v>
@@ -11984,13 +11794,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="23" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>406</v>
@@ -12001,13 +11811,13 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="23" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>406</v>
@@ -12018,10 +11828,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="23" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="C68" s="20">
         <v>1</v>
@@ -12035,16 +11845,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="23" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="C69" s="20">
         <v>1</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>919</v>
+        <v>896</v>
       </c>
       <c r="E69" s="21">
         <v>1000000000000</v>
@@ -12055,16 +11865,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="23" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="C70" s="20">
         <v>1</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>920</v>
+        <v>897</v>
       </c>
       <c r="E70" s="21">
         <v>1000000000000</v>
@@ -12075,13 +11885,13 @@
     </row>
     <row r="71" spans="1:6" ht="14.6">
       <c r="A71" s="23" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="D71" t="s">
-        <v>921</v>
+        <v>898</v>
       </c>
       <c r="E71" s="20">
         <v>1</v>
@@ -12089,13 +11899,13 @@
     </row>
     <row r="72" spans="1:6" ht="14.6">
       <c r="A72" s="23" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="D72" t="s">
-        <v>922</v>
+        <v>899</v>
       </c>
       <c r="E72" s="20">
         <v>1</v>
@@ -12103,11 +11913,11 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="23" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="B73" s="23"/>
       <c r="D73" s="23" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>406</v>
@@ -12118,11 +11928,11 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="23" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B74" s="23"/>
       <c r="D74" s="23" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="E74" s="23">
         <v>1</v>
@@ -12133,13 +11943,13 @@
     </row>
     <row r="75" spans="1:6" ht="14.6">
       <c r="A75" s="23" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="D75" t="s">
-        <v>923</v>
+        <v>900</v>
       </c>
       <c r="E75" s="20">
         <v>1</v>
@@ -12147,11 +11957,11 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="23" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B76" s="23"/>
       <c r="D76" s="23" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>406</v>
@@ -12162,11 +11972,11 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="23" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B77" s="23"/>
       <c r="D77" s="23" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E77" s="23">
         <v>1</v>
@@ -12177,13 +11987,13 @@
     </row>
     <row r="78" spans="1:6" ht="14.6">
       <c r="A78" s="23" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="D78" t="s">
-        <v>924</v>
+        <v>901</v>
       </c>
       <c r="E78" s="20">
         <v>1</v>
@@ -12191,11 +12001,11 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="23" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B79" s="23"/>
       <c r="D79" s="23" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>406</v>
@@ -12206,11 +12016,11 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="23" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="B80" s="23"/>
       <c r="D80" s="23" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="E80" s="23">
         <v>1</v>
@@ -12221,13 +12031,13 @@
     </row>
     <row r="81" spans="1:6" ht="14.6">
       <c r="A81" s="23" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="D81" t="s">
-        <v>925</v>
+        <v>902</v>
       </c>
       <c r="E81" s="20">
         <v>1</v>
@@ -12235,11 +12045,11 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="23" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B82" s="23"/>
       <c r="D82" s="23" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>406</v>
@@ -12250,11 +12060,11 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="23" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B83" s="23"/>
       <c r="D83" s="23" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E83" s="23">
         <v>1</v>
@@ -19535,7 +19345,7 @@
     </row>
     <row r="346" spans="1:7">
       <c r="A346" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B346" t="s">
         <v>484</v>
@@ -19555,7 +19365,7 @@
     </row>
     <row r="347" spans="1:7">
       <c r="A347" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B347" t="s">
         <v>484</v>
@@ -19575,7 +19385,7 @@
     </row>
     <row r="348" spans="1:7">
       <c r="A348" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B348" t="s">
         <v>484</v>
@@ -19595,7 +19405,7 @@
     </row>
     <row r="349" spans="1:7">
       <c r="A349" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B349" t="s">
         <v>484</v>
@@ -19615,7 +19425,7 @@
     </row>
     <row r="350" spans="1:7">
       <c r="A350" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B350" t="s">
         <v>484</v>
@@ -19635,7 +19445,7 @@
     </row>
     <row r="351" spans="1:7">
       <c r="A351" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B351" t="s">
         <v>484</v>
@@ -19655,7 +19465,7 @@
     </row>
     <row r="352" spans="1:7">
       <c r="A352" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B352" t="s">
         <v>484</v>
@@ -19675,7 +19485,7 @@
     </row>
     <row r="353" spans="1:7">
       <c r="A353" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B353" t="s">
         <v>484</v>
@@ -19695,7 +19505,7 @@
     </row>
     <row r="354" spans="1:7">
       <c r="A354" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B354" t="s">
         <v>484</v>
@@ -19715,7 +19525,7 @@
     </row>
     <row r="355" spans="1:7">
       <c r="A355" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B355" t="s">
         <v>484</v>
@@ -19735,7 +19545,7 @@
     </row>
     <row r="356" spans="1:7">
       <c r="A356" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B356" t="s">
         <v>484</v>
@@ -19755,7 +19565,7 @@
     </row>
     <row r="357" spans="1:7">
       <c r="A357" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B357" t="s">
         <v>484</v>
@@ -19775,7 +19585,7 @@
     </row>
     <row r="358" spans="1:7">
       <c r="A358" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B358" t="s">
         <v>484</v>
@@ -19795,7 +19605,7 @@
     </row>
     <row r="359" spans="1:7">
       <c r="A359" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B359" t="s">
         <v>484</v>
@@ -19815,7 +19625,7 @@
     </row>
     <row r="360" spans="1:7">
       <c r="A360" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B360" t="s">
         <v>484</v>
@@ -19835,7 +19645,7 @@
     </row>
     <row r="361" spans="1:7">
       <c r="A361" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B361" t="s">
         <v>484</v>
@@ -19855,7 +19665,7 @@
     </row>
     <row r="362" spans="1:7">
       <c r="A362" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B362" t="s">
         <v>484</v>
@@ -19875,7 +19685,7 @@
     </row>
     <row r="363" spans="1:7">
       <c r="A363" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B363" t="s">
         <v>484</v>
@@ -19895,7 +19705,7 @@
     </row>
     <row r="364" spans="1:7">
       <c r="A364" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B364" t="s">
         <v>484</v>
@@ -19915,7 +19725,7 @@
     </row>
     <row r="365" spans="1:7">
       <c r="A365" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B365" t="s">
         <v>484</v>
@@ -19935,7 +19745,7 @@
     </row>
     <row r="366" spans="1:7">
       <c r="A366" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B366" t="s">
         <v>484</v>
@@ -19955,7 +19765,7 @@
     </row>
     <row r="367" spans="1:7">
       <c r="A367" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B367" t="s">
         <v>484</v>
@@ -19975,7 +19785,7 @@
     </row>
     <row r="368" spans="1:7">
       <c r="A368" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B368" t="s">
         <v>484</v>
@@ -19995,7 +19805,7 @@
     </row>
     <row r="369" spans="1:7">
       <c r="A369" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B369" t="s">
         <v>484</v>
@@ -20015,7 +19825,7 @@
     </row>
     <row r="370" spans="1:7">
       <c r="A370" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B370" t="s">
         <v>484</v>
@@ -20035,7 +19845,7 @@
     </row>
     <row r="371" spans="1:7">
       <c r="A371" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B371" t="s">
         <v>484</v>
@@ -20055,7 +19865,7 @@
     </row>
     <row r="372" spans="1:7">
       <c r="A372" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B372" t="s">
         <v>484</v>
@@ -20075,7 +19885,7 @@
     </row>
     <row r="373" spans="1:7">
       <c r="A373" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B373" t="s">
         <v>484</v>
@@ -20095,7 +19905,7 @@
     </row>
     <row r="374" spans="1:7">
       <c r="A374" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B374" t="s">
         <v>484</v>
@@ -20115,7 +19925,7 @@
     </row>
     <row r="375" spans="1:7">
       <c r="A375" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B375" t="s">
         <v>484</v>
@@ -20135,7 +19945,7 @@
     </row>
     <row r="376" spans="1:7">
       <c r="A376" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B376" t="s">
         <v>484</v>
@@ -20155,7 +19965,7 @@
     </row>
     <row r="377" spans="1:7">
       <c r="A377" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B377" t="s">
         <v>484</v>
@@ -20175,7 +19985,7 @@
     </row>
     <row r="378" spans="1:7">
       <c r="A378" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B378" t="s">
         <v>484</v>
@@ -20195,7 +20005,7 @@
     </row>
     <row r="379" spans="1:7">
       <c r="A379" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B379" t="s">
         <v>484</v>

--- a/examples/OregonNd/model_config.OregonNd.xlsx
+++ b/examples/OregonNd/model_config.OregonNd.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jianghui\.julia\dev\SedTrace\examples\OregonNd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkudu\Documents\SedTrace\examples\OregonNd\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C576172A-4460-40AB-82C5-6557D51C7BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-94" yWindow="-94" windowWidth="23134" windowHeight="9386" tabRatio="682" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="19900" tabRatio="682" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="substances" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">parameters!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">substances!$A$1:$A$38</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,12 +48,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Denis Pierrot</author>
   </authors>
   <commentList>
-    <comment ref="C21" authorId="0" shapeId="0">
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2997,7 +2997,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
@@ -3294,7 +3294,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3571,25 +3571,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.07421875" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.23046875" style="1"/>
+    <col min="1" max="1" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.15">
+    <row r="1" spans="1:9" ht="14">
       <c r="A1" s="12" t="s">
         <v>98</v>
       </c>
@@ -4373,16 +4373,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.69140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" style="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4546,24 +4546,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A117" sqref="A117:XFD129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.61328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.53515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.15234375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.54296875" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.23046875" style="3"/>
+    <col min="9" max="16384" width="9.26953125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7854,25 +7854,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="105.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="124.84375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.23046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="105.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="124.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -8569,24 +8569,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.84375" customWidth="1"/>
-    <col min="3" max="3" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.07421875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.69140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -9651,22 +9651,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.07421875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9933,22 +9933,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="101.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.84375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.4609375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10361,7 +10361,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1"/>
-    <row r="21" spans="1:7" ht="18.899999999999999" thickBot="1">
+    <row r="21" spans="1:7" ht="18.5" thickBot="1">
       <c r="A21" s="28" t="s">
         <v>610</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.899999999999999">
+    <row r="22" spans="1:7" ht="19">
       <c r="A22" s="30" t="s">
         <v>612</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>0.62734923682224519</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.899999999999999">
+    <row r="23" spans="1:7" ht="19">
       <c r="A23" s="30" t="s">
         <v>613</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>0.59094724233430884</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.899999999999999">
+    <row r="24" spans="1:7" ht="19">
       <c r="A24" s="30" t="s">
         <v>614</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>0.22023740341887449</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.899999999999999">
+    <row r="25" spans="1:7" ht="19">
       <c r="A25" s="30" t="s">
         <v>17</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>0.20455607235356629</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.45">
+    <row r="26" spans="1:7" ht="18">
       <c r="A26" s="27" t="s">
         <v>19</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>0.67014411908957849</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.45">
+    <row r="27" spans="1:7" ht="18">
       <c r="A27" s="27" t="s">
         <v>615</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>0.22871823907329925</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.45">
+    <row r="28" spans="1:7" ht="18">
       <c r="A28" s="33" t="s">
         <v>18</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>7.8073048809150475E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.899999999999999">
+    <row r="29" spans="1:7" ht="19">
       <c r="A29" s="30" t="s">
         <v>616</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>0.35762334919410615</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.45">
+    <row r="30" spans="1:7" ht="18">
       <c r="A30" s="27" t="s">
         <v>617</v>
       </c>
@@ -10471,28 +10471,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.61328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.07421875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.15234375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="117.84375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.69140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.53515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.69140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.53515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.69140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.07421875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.15234375" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.23046875" style="20"/>
+    <col min="1" max="1" width="20.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="117.81640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.26953125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -11896,7 +11896,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="14.6">
+    <row r="71" spans="1:6" ht="14.5">
       <c r="A71" s="23" t="s">
         <v>668</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14.6">
+    <row r="72" spans="1:6" ht="14.5">
       <c r="A72" s="23" t="s">
         <v>669</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14.6">
+    <row r="75" spans="1:6" ht="14.5">
       <c r="A75" s="23" t="s">
         <v>670</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="14.6">
+    <row r="78" spans="1:6" ht="14.5">
       <c r="A78" s="23" t="s">
         <v>676</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="14.6">
+    <row r="81" spans="1:6" ht="14.5">
       <c r="A81" s="23" t="s">
         <v>686</v>
       </c>
@@ -12093,16 +12093,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H379"/>
   <sheetViews>
     <sheetView topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L145" sqref="L145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -20037,7 +20037,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H311">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H311">
     <sortCondition ref="B2:B311"/>
     <sortCondition ref="A2:A311"/>
     <sortCondition ref="D2:D311"/>
